--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportSuppliers.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportSuppliers.xlsx
@@ -261,7 +261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
+        <fgColor rgb="FF004254"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
@@ -315,12 +315,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -333,7 +333,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -372,7 +372,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004254"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -398,32 +398,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="14" style="0" width="15.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B3:M3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="24.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="14" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="20.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,34 +556,34 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -472,40 +591,40 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -514,151 +633,29 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B3:M3"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
